--- a/biology/Botanique/Udoteaceae/Udoteaceae.xlsx
+++ b/biology/Botanique/Udoteaceae/Udoteaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Udotéacées
 Les Udoteaceae (ou Udotéacées) sont une famille d'algues vertes de l'ordre des Bryopsidales.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Udotea dont l'étymologie n'est pas claire ; le nom pourrait être la dérivation du latin udo, « humecter, mouiller », udus, « chargé d'eau, humecté ». Certains y voient une origine grecque ύδωρ / ydor, eau[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Udotea dont l'étymologie n'est pas claire ; le nom pourrait être la dérivation du latin udo, « humecter, mouiller », udus, « chargé d'eau, humecté ». Certains y voient une origine grecque ύδωρ / ydor, eau.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (29 avril 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (29 avril 2013) :
 Boodleopsis A.Gepp &amp; E.S.Gepp
 Botryodesmis Kraft
 Chlorodesmis Harvey &amp; Bailey
@@ -561,7 +577,7 @@
 Siphonogramen I.A.Abbott &amp; Huisman
 Tydemania Weber-van Bosse
 Udotea J.V.Lamouroux
-Selon ITIS      (29 avril 2013)[3] :
+Selon ITIS      (29 avril 2013) :
 Avrainvillea J. Decaisne, 1842
 Chlorodesmis Harvey &amp; Bailey, 1851
 Halimeda J. V. F. Lamouroux, 1812
@@ -569,7 +585,7 @@
 Rhipilia Kutzing, 1858
 Rhipocephalus F. T. Kützing, 1843
 Udotea J. V. F. Lamouroux, 1812
-Selon World Register of Marine Species                               (29 avril 2013)[4] :
+Selon World Register of Marine Species                               (29 avril 2013) :
 Boodleopsis A.Gepp &amp; E.S.Gepp, 1911
 Botryodesmis Kraft, 2007
 Chlorodesmis Harvey &amp; Bailey, 1841
